--- a/src/planilhas/dados_alunos.xlsx
+++ b/src/planilhas/dados_alunos.xlsx
@@ -1,14 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alan César\Desktop\auto_sice\src\planilhas\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE67EA56-48B9-41BF-8262-0AEDD7E3CCB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Página1" sheetId="1" r:id="rId4"/>
+    <sheet name="Página1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'Página1'!$A$1:$G$39</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Página1!$A$1:$G$39</definedName>
   </definedNames>
-  <calcPr/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -225,21 +246,28 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d/m/yyyy"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -247,39 +275,62 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
-    <border/>
+  <borders count="2">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
+  <cellXfs count="4">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -469,26 +520,34 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:G40"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D43" sqref="D43"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="40.63"/>
-    <col customWidth="1" min="3" max="3" width="23.0"/>
-    <col customWidth="1" min="4" max="4" width="16.5"/>
-    <col customWidth="1" min="7" max="7" width="16.88"/>
+    <col min="1" max="1" width="44.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -511,871 +570,879 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>7</v>
+        <v>55</v>
       </c>
       <c r="B2" s="1">
-        <v>2613044.0</v>
+        <v>4885009</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>8</v>
+        <v>56</v>
       </c>
       <c r="D2" s="1">
-        <v>34879.0</v>
-      </c>
-      <c r="E2" s="2">
-        <v>45594.0</v>
+        <v>34719</v>
       </c>
       <c r="F2" s="1">
-        <v>1.0</v>
+        <v>0</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>10</v>
+        <v>61</v>
       </c>
       <c r="B3" s="1">
-        <v>2625920.0</v>
+        <v>2234426</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>8</v>
+        <v>62</v>
       </c>
       <c r="D3" s="1">
-        <v>34879.0</v>
+        <v>32986</v>
       </c>
       <c r="E3" s="2">
-        <v>45594.0</v>
+        <v>45560</v>
       </c>
       <c r="F3" s="1">
-        <v>1.0</v>
+        <v>0</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="B4" s="1">
-        <v>2613067.0</v>
+        <v>2618097</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="D4" s="1">
-        <v>36734.0</v>
+        <v>27419</v>
       </c>
       <c r="E4" s="2">
-        <v>45594.0</v>
+        <v>45559</v>
       </c>
       <c r="F4" s="1">
-        <v>1.0</v>
+        <v>0</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:7" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="B5" s="1">
-        <v>4225210.0</v>
+        <v>4884979</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="D5" s="1">
-        <v>20622.0</v>
+        <v>29906</v>
       </c>
       <c r="E5" s="2">
-        <v>45594.0</v>
+        <v>45561</v>
       </c>
       <c r="F5" s="1">
-        <v>1.0</v>
+        <v>0</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="1">
+        <v>2618165</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="1">
+        <v>25367</v>
+      </c>
+      <c r="E6" s="2">
+        <v>45560</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="1">
+        <v>3988045</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="1">
+        <v>25367</v>
+      </c>
+      <c r="E7" s="2">
+        <v>45560</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="1">
-        <v>3140128.0</v>
-      </c>
-      <c r="C6" s="1" t="s">
+      <c r="B8" s="1">
+        <v>3140128</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="1">
-        <v>25255.0</v>
-      </c>
-      <c r="E6" s="2">
-        <v>45594.0</v>
-      </c>
-      <c r="F6" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" s="1">
-        <v>3097320.0</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="1">
-        <v>25255.0</v>
-      </c>
-      <c r="E7" s="2">
-        <v>45594.0</v>
-      </c>
-      <c r="F7" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" s="1">
-        <v>2557493.0</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="D8" s="1">
-        <v>29116.0</v>
+        <v>25255</v>
       </c>
       <c r="E8" s="2">
-        <v>45594.0</v>
+        <v>45594</v>
       </c>
       <c r="F8" s="1">
-        <v>1.0</v>
+        <v>0</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:7" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="B9" s="1">
-        <v>2557845.0</v>
+        <v>4046432</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D9" s="1">
-        <v>29116.0</v>
+        <v>25367</v>
       </c>
       <c r="E9" s="2">
-        <v>45594.0</v>
+        <v>45560</v>
       </c>
       <c r="F9" s="1">
-        <v>1.0</v>
+        <v>0</v>
       </c>
       <c r="G9" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B10" s="1">
+        <v>2880869</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D10" s="1">
+        <v>25255</v>
+      </c>
+      <c r="E10" s="2">
+        <v>45560</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B11" s="1">
+        <v>2562855</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D11" s="1">
+        <v>34719</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="1">
+        <v>2613044</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="1">
+        <v>34879</v>
+      </c>
+      <c r="E12" s="2">
+        <v>45636</v>
+      </c>
+      <c r="F12" s="1">
+        <v>1</v>
+      </c>
+      <c r="G12" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" s="1">
-        <v>2618097.0</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D10" s="1">
-        <v>27419.0</v>
-      </c>
-      <c r="E10" s="2">
-        <v>45594.0</v>
-      </c>
-      <c r="F10" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="G10" s="1" t="s">
+    <row r="13" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="1">
+        <v>2625920</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="1">
+        <v>34879</v>
+      </c>
+      <c r="E13" s="2">
+        <v>45636</v>
+      </c>
+      <c r="F13" s="1">
+        <v>1</v>
+      </c>
+      <c r="G13" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11" s="1">
-        <v>4599677.0</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D11" s="1">
-        <v>27419.0</v>
-      </c>
-      <c r="E11" s="2">
-        <v>45594.0</v>
-      </c>
-      <c r="F11" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B12" s="1">
-        <v>2618165.0</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" s="1">
-        <v>25367.0</v>
-      </c>
-      <c r="E12" s="2">
-        <v>45594.0</v>
-      </c>
-      <c r="F12" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B13" s="1">
-        <v>3988045.0</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" s="1">
-        <v>25367.0</v>
-      </c>
-      <c r="E13" s="2">
-        <v>45594.0</v>
-      </c>
-      <c r="F13" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14">
+    <row r="14" spans="1:7" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B14" s="1">
-        <v>4046432.0</v>
+        <v>4375523</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>25</v>
       </c>
       <c r="D14" s="1">
-        <v>25367.0</v>
+        <v>25367</v>
       </c>
       <c r="E14" s="2">
-        <v>45594.0</v>
+        <v>45560</v>
       </c>
       <c r="F14" s="1">
-        <v>1.0</v>
+        <v>0</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:7" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="B15" s="1">
-        <v>4375523.0</v>
+        <v>2557493</v>
       </c>
       <c r="C15" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" s="1">
+        <v>29116</v>
+      </c>
+      <c r="E15" s="2">
+        <v>45559</v>
+      </c>
+      <c r="F15" s="1">
+        <v>0</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" s="1">
+        <v>4885035</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D16" s="1">
+        <v>27575</v>
+      </c>
+      <c r="E16" s="2">
+        <v>45562</v>
+      </c>
+      <c r="F16" s="1">
+        <v>0</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B17" s="1">
+        <v>2613067</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" s="1">
+        <v>36734</v>
+      </c>
+      <c r="E17" s="2">
+        <v>45636</v>
+      </c>
+      <c r="F17" s="1">
+        <v>1</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18" s="1">
+        <v>4225210</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" s="1">
+        <v>20622</v>
+      </c>
+      <c r="E18" s="2">
+        <v>45636</v>
+      </c>
+      <c r="F18" s="1">
+        <v>1</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B19" s="1">
+        <v>3095166</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D15" s="1">
-        <v>25367.0</v>
-      </c>
-      <c r="E15" s="2">
-        <v>45594.0</v>
-      </c>
-      <c r="F15" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="G15" s="1" t="s">
+      <c r="D19" s="1">
+        <v>25367</v>
+      </c>
+      <c r="E19" s="2">
+        <v>45560</v>
+      </c>
+      <c r="F19" s="1">
+        <v>0</v>
+      </c>
+      <c r="G19" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B16" s="1">
-        <v>3095166.0</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" s="1">
-        <v>25367.0</v>
-      </c>
-      <c r="E16" s="2">
-        <v>45594.0</v>
-      </c>
-      <c r="F16" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B17" s="1">
-        <v>4885035.0</v>
-      </c>
-      <c r="C17" s="1" t="s">
+    <row r="20" spans="1:7" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B20" s="1">
+        <v>2517934</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D17" s="1">
-        <v>27575.0</v>
-      </c>
-      <c r="E17" s="2">
-        <v>45594.0</v>
-      </c>
-      <c r="F17" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="G17" s="1" t="s">
+      <c r="D20" s="1">
+        <v>27575</v>
+      </c>
+      <c r="E20" s="2">
+        <v>45562</v>
+      </c>
+      <c r="F20" s="1">
+        <v>0</v>
+      </c>
+      <c r="G20" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B18" s="1">
-        <v>2517934.0</v>
-      </c>
-      <c r="C18" s="1" t="s">
+    <row r="21" spans="1:7" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B21" s="1">
+        <v>2892449</v>
+      </c>
+      <c r="F21" s="1">
+        <v>0</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" s="1">
+        <v>4599677</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D22" s="1">
+        <v>27419</v>
+      </c>
+      <c r="E22" s="2">
+        <v>45594</v>
+      </c>
+      <c r="F22" s="1">
+        <v>0</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B23" s="1">
+        <v>2557845</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D23" s="1">
+        <v>29116</v>
+      </c>
+      <c r="E23" s="2">
+        <v>45636</v>
+      </c>
+      <c r="F23" s="1">
+        <v>1</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B24" s="1">
+        <v>2876005</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D24" s="1">
+        <v>25255</v>
+      </c>
+      <c r="E24" s="2">
+        <v>45637</v>
+      </c>
+      <c r="F24" s="1">
+        <v>1</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B25" s="1">
+        <v>2906006</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D25" s="1">
+        <v>34238</v>
+      </c>
+      <c r="E25" s="2">
+        <v>45560</v>
+      </c>
+      <c r="F25" s="1">
+        <v>0</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B26" s="1">
+        <v>3097320</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D26" s="1">
+        <v>25255</v>
+      </c>
+      <c r="E26" s="2">
+        <v>45594</v>
+      </c>
+      <c r="F26" s="1">
+        <v>0</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B27" s="1">
+        <v>4628676</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D27" s="1">
+        <v>28209</v>
+      </c>
+      <c r="E27" s="2">
+        <v>45561</v>
+      </c>
+      <c r="F27" s="1">
+        <v>0</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B28" s="1">
+        <v>2468985</v>
+      </c>
+      <c r="C28" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D18" s="1">
-        <v>27575.0</v>
-      </c>
-      <c r="E18" s="2">
-        <v>45594.0</v>
-      </c>
-      <c r="F18" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="G18" s="1" t="s">
+      <c r="D28" s="1">
+        <v>27575</v>
+      </c>
+      <c r="E28" s="2">
+        <v>45562</v>
+      </c>
+      <c r="F28" s="1">
+        <v>0</v>
+      </c>
+      <c r="G28" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B19" s="1">
-        <v>2468985.0</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D19" s="1">
-        <v>27575.0</v>
-      </c>
-      <c r="E19" s="2">
-        <v>45594.0</v>
-      </c>
-      <c r="F19" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B20" s="1">
-        <v>2851949.0</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D20" s="1">
-        <v>34545.0</v>
-      </c>
-      <c r="E20" s="2">
-        <v>45589.0</v>
-      </c>
-      <c r="F20" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="s">
+    <row r="29" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B21" s="1">
-        <v>3832236.0</v>
-      </c>
-      <c r="C21" s="1" t="s">
+      <c r="B29" s="1">
+        <v>3832236</v>
+      </c>
+      <c r="C29" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D21" s="1">
-        <v>32948.0</v>
-      </c>
-      <c r="E21" s="2">
-        <v>45589.0</v>
-      </c>
-      <c r="F21" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B22" s="1">
-        <v>2852371.0</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D22" s="1">
-        <v>32948.0</v>
-      </c>
-      <c r="E22" s="2">
-        <v>45589.0</v>
-      </c>
-      <c r="F22" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B23" s="1">
-        <v>4422370.0</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D23" s="1">
-        <v>34695.0</v>
-      </c>
-      <c r="E23" s="2">
-        <v>45589.0</v>
-      </c>
-      <c r="F23" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B24" s="1">
-        <v>2881065.0</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D24" s="1">
-        <v>34695.0</v>
-      </c>
-      <c r="E24" s="2">
-        <v>45589.0</v>
-      </c>
-      <c r="F24" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B25" s="1">
-        <v>4884979.0</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D25" s="1">
-        <v>29906.0</v>
-      </c>
-      <c r="E25" s="2">
-        <v>45589.0</v>
-      </c>
-      <c r="F25" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B26" s="1">
-        <v>2837892.0</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D26" s="1">
-        <v>27575.0</v>
-      </c>
-      <c r="E26" s="2">
-        <v>45589.0</v>
-      </c>
-      <c r="F26" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B27" s="1">
-        <v>2906006.0</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D27" s="1">
-        <v>34238.0</v>
-      </c>
-      <c r="E27" s="2">
-        <v>45587.0</v>
-      </c>
-      <c r="F27" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B28" s="1">
-        <v>2618618.0</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D28" s="1">
-        <v>34238.0</v>
-      </c>
-      <c r="E28" s="2">
-        <v>45587.0</v>
-      </c>
-      <c r="F28" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="s">
+      <c r="D29" s="1">
+        <v>32948</v>
+      </c>
+      <c r="E29" s="2">
+        <v>45637</v>
+      </c>
+      <c r="F29" s="1">
+        <v>1</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B29" s="1">
-        <v>2837513.0</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D29" s="1">
-        <v>25212.0</v>
-      </c>
-      <c r="E29" s="2">
-        <v>45587.0</v>
-      </c>
-      <c r="F29" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="1" t="s">
-        <v>54</v>
-      </c>
       <c r="B30" s="1">
-        <v>3261172.0</v>
+        <v>2837513</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D30" s="1">
-        <v>25212.0</v>
+        <v>25212</v>
       </c>
       <c r="E30" s="2">
-        <v>45587.0</v>
+        <v>45561</v>
       </c>
       <c r="F30" s="1">
-        <v>1.0</v>
+        <v>0</v>
       </c>
       <c r="G30" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="B31" s="1">
-        <v>4885009.0</v>
+        <v>2869083</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="D31" s="1">
-        <v>34719.0</v>
+        <v>28209</v>
+      </c>
+      <c r="E31" s="2">
+        <v>45637</v>
       </c>
       <c r="F31" s="1">
-        <v>0.0</v>
+        <v>1</v>
       </c>
       <c r="G31" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="B32" s="1">
-        <v>2562855.0</v>
+        <v>2875709</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="D32" s="1">
-        <v>34719.0</v>
+        <v>28209</v>
+      </c>
+      <c r="E32" s="2">
+        <v>45637</v>
       </c>
       <c r="F32" s="1">
-        <v>0.0</v>
+        <v>1</v>
       </c>
       <c r="G32" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="B33" s="1">
-        <v>2876005.0</v>
+        <v>2837892</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="D33" s="1">
-        <v>25255.0</v>
+        <v>27575</v>
       </c>
       <c r="E33" s="2">
-        <v>45589.0</v>
+        <v>45637</v>
       </c>
       <c r="F33" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G33" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="B34" s="1">
-        <v>2880869.0</v>
+        <v>2618618</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="D34" s="1">
-        <v>25255.0</v>
+        <v>34238</v>
       </c>
       <c r="E34" s="2">
-        <v>45589.0</v>
+        <v>45638</v>
       </c>
       <c r="F34" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G34" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>61</v>
+        <v>41</v>
       </c>
       <c r="B35" s="1">
-        <v>2234426.0</v>
+        <v>2852371</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>62</v>
+        <v>40</v>
       </c>
       <c r="D35" s="1">
-        <v>32986.0</v>
+        <v>32948</v>
       </c>
       <c r="E35" s="2">
-        <v>45589.0</v>
+        <v>45638</v>
       </c>
       <c r="F35" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G35" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="B36" s="1">
-        <v>4628676.0</v>
+        <v>4422370</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>64</v>
+        <v>43</v>
       </c>
       <c r="D36" s="1">
-        <v>28209.0</v>
+        <v>34695</v>
       </c>
       <c r="E36" s="2">
-        <v>45587.0</v>
+        <v>45638</v>
       </c>
       <c r="F36" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G36" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" spans="1:7" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>65</v>
+        <v>36</v>
       </c>
       <c r="B37" s="1">
-        <v>2869083.0</v>
+        <v>2851949</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>66</v>
+        <v>37</v>
       </c>
       <c r="D37" s="1">
-        <v>28209.0</v>
+        <v>34545</v>
       </c>
       <c r="E37" s="2">
-        <v>45587.0</v>
+        <v>45561</v>
       </c>
       <c r="F37" s="1">
-        <v>1.0</v>
+        <v>0</v>
       </c>
       <c r="G37" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>67</v>
+        <v>44</v>
       </c>
       <c r="B38" s="1">
-        <v>2875709.0</v>
+        <v>2881065</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="D38" s="1">
-        <v>28209.0</v>
+        <v>34695</v>
       </c>
       <c r="E38" s="2">
-        <v>45587.0</v>
+        <v>45638</v>
       </c>
       <c r="F38" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G38" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" spans="1:7" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="B39" s="1">
-        <v>2892449.0</v>
+        <v>3261172</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D39" s="1">
+        <v>25212</v>
+      </c>
+      <c r="E39" s="2">
+        <v>45561</v>
       </c>
       <c r="F39" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G39" s="1" t="s">
         <v>38</v>
       </c>
     </row>
+    <row r="40" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="3"/>
+    </row>
   </sheetData>
-  <autoFilter ref="$A$1:$G$39">
-    <sortState ref="A1:G39">
-      <sortCondition ref="G1:G39"/>
+  <autoFilter ref="A1:G39" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <filterColumn colId="5">
+      <filters>
+        <filter val="1"/>
+      </filters>
+    </filterColumn>
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G38">
+      <sortCondition ref="F1:F39"/>
     </sortState>
   </autoFilter>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>